--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intel\Desktop\IG\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC175C0-E159-46AB-A7C1-8CF687153CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD65716C-A2F2-435A-B7B6-11066EA121DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$7</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Дата</t>
   </si>
@@ -67,13 +70,40 @@
   </si>
   <si>
     <t>стр. 250</t>
+  </si>
+  <si>
+    <t>Л.Н.Толстой</t>
+  </si>
+  <si>
+    <t>Война и мир</t>
+  </si>
+  <si>
+    <t>Ф.М.Достоевский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Преступление и наказание </t>
+  </si>
+  <si>
+    <t>Ф.С.Фицджеральд</t>
+  </si>
+  <si>
+    <t>Великий Гэтсби</t>
+  </si>
+  <si>
+    <t>стр. 278</t>
+  </si>
+  <si>
+    <t>стр.862</t>
+  </si>
+  <si>
+    <t>стр. 1121</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,13 +111,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,12 +146,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -390,34 +438,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="60.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -472,7 +520,64 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44675</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44938</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E7">
+      <sortCondition ref="A1:A7"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intel\Desktop\IG\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD65716C-A2F2-435A-B7B6-11066EA121DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8CA9C0-46E2-4778-B2DA-DD4A7494772C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,22 +142,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,7 +457,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,121 +469,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>44492</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>44510</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>44573</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>44675</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>44938</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>44380</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
